--- a/src/test/resources/testdata/TestNGdata.xlsx
+++ b/src/test/resources/testdata/TestNGdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>C:\Users\Михаил\Desktop\IMG_7511.JPG</t>
+  </si>
+  <si>
+    <t>dzhenkov_mihail@mail.ru123</t>
   </si>
 </sst>
 </file>
@@ -99,9 +102,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -406,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,30 +474,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3" display="dzhenkov_mihail@mail.ru123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testdata/TestNGdata.xlsx
+++ b/src/test/resources/testdata/TestNGdata.xlsx
@@ -4,57 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginData" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginData" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Photograrh</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>sule</t>
-  </si>
-  <si>
-    <t>ricki</t>
-  </si>
-  <si>
-    <t>anasuke</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>dzhenkov_mihail@mail.ru</t>
-  </si>
-  <si>
-    <t>C:\Users\Михаил\Desktop\IMG_7511.JPG</t>
   </si>
   <si>
     <t>dzhenkov_mihail@mail.ru123</t>
@@ -412,72 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>123266544</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,17 +391,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -518,7 +422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
